--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf2</t>
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N2">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q2">
-        <v>1.855564572708333</v>
+        <v>1.303829243846222</v>
       </c>
       <c r="R2">
-        <v>16.700081154375</v>
+        <v>11.734463194616</v>
       </c>
       <c r="S2">
-        <v>0.002458287280106466</v>
+        <v>0.002174774498521241</v>
       </c>
       <c r="T2">
-        <v>0.002458287280106465</v>
+        <v>0.002174774498521242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P3">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q3">
-        <v>8.837985961275777</v>
+        <v>10.59062159349822</v>
       </c>
       <c r="R3">
-        <v>79.54187365148199</v>
+        <v>95.315594341484</v>
       </c>
       <c r="S3">
-        <v>0.01170873209691248</v>
+        <v>0.01766505382030287</v>
       </c>
       <c r="T3">
-        <v>0.01170873209691248</v>
+        <v>0.01766505382030288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N4">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O4">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P4">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q4">
-        <v>26.696126837539</v>
+        <v>15.47683370253067</v>
       </c>
       <c r="R4">
-        <v>240.265141537851</v>
+        <v>139.291503322776</v>
       </c>
       <c r="S4">
-        <v>0.03536753718952712</v>
+        <v>0.02581520809797665</v>
       </c>
       <c r="T4">
-        <v>0.03536753718952711</v>
+        <v>0.02581520809797666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N5">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q5">
-        <v>13.97264626859056</v>
+        <v>13.05076965081111</v>
       </c>
       <c r="R5">
-        <v>125.753816417315</v>
+        <v>117.4569268573</v>
       </c>
       <c r="S5">
-        <v>0.01851122784768878</v>
+        <v>0.02176855685406492</v>
       </c>
       <c r="T5">
-        <v>0.01851122784768878</v>
+        <v>0.02176855685406493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H6">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I6">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J6">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N6">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q6">
-        <v>19.03787943467367</v>
+        <v>22.17504551002533</v>
       </c>
       <c r="R6">
-        <v>171.340914912063</v>
+        <v>199.575409590228</v>
       </c>
       <c r="S6">
-        <v>0.02522174519971022</v>
+        <v>0.03698776025032841</v>
       </c>
       <c r="T6">
-        <v>0.02522174519971021</v>
+        <v>0.03698776025032841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N7">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q7">
-        <v>15.4723759125</v>
+        <v>9.072636488240002</v>
       </c>
       <c r="R7">
-        <v>139.2513832125</v>
+        <v>81.65372839416001</v>
       </c>
       <c r="S7">
-        <v>0.02049809823821369</v>
+        <v>0.01513306942769017</v>
       </c>
       <c r="T7">
-        <v>0.02049809823821369</v>
+        <v>0.01513306942769018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P8">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q8">
         <v>73.69435864076</v>
@@ -948,10 +948,10 @@
         <v>663.24922776684</v>
       </c>
       <c r="S8">
-        <v>0.0976316896359824</v>
+        <v>0.12292147350831</v>
       </c>
       <c r="T8">
-        <v>0.0976316896359824</v>
+        <v>0.1229214735083101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N9">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O9">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P9">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q9">
-        <v>222.6020672701801</v>
+        <v>107.69484335064</v>
       </c>
       <c r="R9">
-        <v>2003.418605431621</v>
+        <v>969.2535901557602</v>
       </c>
       <c r="S9">
-        <v>0.2949074575707057</v>
+        <v>0.1796339513372929</v>
       </c>
       <c r="T9">
-        <v>0.2949074575707056</v>
+        <v>0.179633951337293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N10">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q10">
-        <v>116.5090338217</v>
+        <v>90.81318699700003</v>
       </c>
       <c r="R10">
-        <v>1048.5813043953</v>
+        <v>817.3186829730001</v>
       </c>
       <c r="S10">
-        <v>0.154353386604778</v>
+        <v>0.1514755127196779</v>
       </c>
       <c r="T10">
-        <v>0.154353386604778</v>
+        <v>0.1514755127196779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N11">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q11">
-        <v>158.74480011234</v>
+        <v>154.30404554292</v>
       </c>
       <c r="R11">
-        <v>1428.70320101106</v>
+        <v>1388.73640988628</v>
       </c>
       <c r="S11">
-        <v>0.2103081340519583</v>
+        <v>0.2573776473025493</v>
       </c>
       <c r="T11">
-        <v>0.2103081340519583</v>
+        <v>0.2573776473025494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N12">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q12">
-        <v>0.622377613125</v>
+        <v>0.5303290291244445</v>
       </c>
       <c r="R12">
-        <v>5.601398518125</v>
+        <v>4.772961262120001</v>
       </c>
       <c r="S12">
-        <v>0.0008245377133575508</v>
+        <v>0.0008845836629366166</v>
       </c>
       <c r="T12">
-        <v>0.000824537713357551</v>
+        <v>0.0008845836629366168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P13">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q13">
-        <v>2.964361730285999</v>
+        <v>4.307706775264444</v>
       </c>
       <c r="R13">
-        <v>26.679255572574</v>
+        <v>38.76936097738</v>
       </c>
       <c r="S13">
-        <v>0.003927242868492678</v>
+        <v>0.007185213007123814</v>
       </c>
       <c r="T13">
-        <v>0.003927242868492679</v>
+        <v>0.007185213007123816</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H14">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I14">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J14">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N14">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O14">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P14">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q14">
-        <v>8.954186744673001</v>
+        <v>6.295160374813334</v>
       </c>
       <c r="R14">
-        <v>80.58768070205701</v>
+        <v>56.65644337332001</v>
       </c>
       <c r="S14">
-        <v>0.01186267710748512</v>
+        <v>0.01050026628246127</v>
       </c>
       <c r="T14">
-        <v>0.01186267710748512</v>
+        <v>0.01050026628246127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H15">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I15">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J15">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N15">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q15">
-        <v>4.686585614744999</v>
+        <v>5.308365363722223</v>
       </c>
       <c r="R15">
-        <v>42.179270532705</v>
+        <v>47.77528827350001</v>
       </c>
       <c r="S15">
-        <v>0.006208877865695538</v>
+        <v>0.008854301800902173</v>
       </c>
       <c r="T15">
-        <v>0.00620887786569554</v>
+        <v>0.008854301800902173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H16">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I16">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J16">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N16">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q16">
-        <v>6.385522840748999</v>
+        <v>9.019639965606668</v>
       </c>
       <c r="R16">
-        <v>57.469705566741</v>
+        <v>81.17675969046002</v>
       </c>
       <c r="S16">
-        <v>0.008459662254346117</v>
+        <v>0.01504467174334826</v>
       </c>
       <c r="T16">
-        <v>0.008459662254346119</v>
+        <v>0.01504467174334826</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H17">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N17">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q17">
-        <v>1.94475771625</v>
+        <v>1.16338477198</v>
       </c>
       <c r="R17">
-        <v>17.50281944625</v>
+        <v>10.47046294782</v>
       </c>
       <c r="S17">
-        <v>0.00257645205511139</v>
+        <v>0.001940514485322022</v>
       </c>
       <c r="T17">
-        <v>0.00257645205511139</v>
+        <v>0.001940514485322022</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H18">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P18">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q18">
-        <v>9.262809630609333</v>
+        <v>9.449832442269999</v>
       </c>
       <c r="R18">
-        <v>83.365286675484</v>
+        <v>85.04849198043</v>
       </c>
       <c r="S18">
-        <v>0.01227154658365737</v>
+        <v>0.01576222861064418</v>
       </c>
       <c r="T18">
-        <v>0.01227154658365737</v>
+        <v>0.01576222861064418</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H19">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N19">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O19">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P19">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q19">
-        <v>27.979354329618</v>
+        <v>13.80971682678</v>
       </c>
       <c r="R19">
-        <v>251.814188966562</v>
+        <v>124.28745144102</v>
       </c>
       <c r="S19">
-        <v>0.03706758140661219</v>
+        <v>0.02303447336254333</v>
       </c>
       <c r="T19">
-        <v>0.03706758140661218</v>
+        <v>0.02303447336254334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H20">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N20">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q20">
-        <v>14.64428241783667</v>
+        <v>11.64498092525</v>
       </c>
       <c r="R20">
-        <v>131.79854176053</v>
+        <v>104.80482832725</v>
       </c>
       <c r="S20">
-        <v>0.01940102420769448</v>
+        <v>0.01942371493163634</v>
       </c>
       <c r="T20">
-        <v>0.01940102420769448</v>
+        <v>0.01942371493163634</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H21">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N21">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q21">
-        <v>19.952990845034</v>
+        <v>19.78641788109</v>
       </c>
       <c r="R21">
-        <v>179.576917605306</v>
+        <v>178.07776092981</v>
       </c>
       <c r="S21">
-        <v>0.02643410222196444</v>
+        <v>0.03300355259553791</v>
       </c>
       <c r="T21">
-        <v>0.02643410222196443</v>
+        <v>0.03300355259553792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.023536</v>
+      </c>
+      <c r="I22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.222961333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.668884</v>
+      </c>
+      <c r="O22">
+        <v>0.02082890820948692</v>
+      </c>
+      <c r="P22">
+        <v>0.02082890820948692</v>
+      </c>
+      <c r="Q22">
+        <v>0.4172483170915556</v>
+      </c>
+      <c r="R22">
+        <v>3.755234853824</v>
+      </c>
+      <c r="S22">
+        <v>0.0006959661350168669</v>
+      </c>
+      <c r="T22">
+        <v>0.0006959661350168672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.023536</v>
+      </c>
+      <c r="I23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.933755333333332</v>
+      </c>
+      <c r="N23">
+        <v>29.801266</v>
+      </c>
+      <c r="O23">
+        <v>0.1691870972318839</v>
+      </c>
+      <c r="P23">
+        <v>0.169187097231884</v>
+      </c>
+      <c r="Q23">
+        <v>3.389185399619556</v>
+      </c>
+      <c r="R23">
+        <v>30.502668596576</v>
+      </c>
+      <c r="S23">
+        <v>0.005653128285503048</v>
+      </c>
+      <c r="T23">
+        <v>0.005653128285503049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.023536</v>
+      </c>
+      <c r="I24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.516908</v>
+      </c>
+      <c r="N24">
+        <v>43.550724</v>
+      </c>
+      <c r="O24">
+        <v>0.247245220250272</v>
+      </c>
+      <c r="P24">
+        <v>0.2472452202502721</v>
+      </c>
+      <c r="Q24">
+        <v>4.952859315562667</v>
+      </c>
+      <c r="R24">
+        <v>44.575733840064</v>
+      </c>
+      <c r="S24">
+        <v>0.008261321169997827</v>
+      </c>
+      <c r="T24">
+        <v>0.008261321169997829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.023536</v>
+      </c>
+      <c r="I25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.24131666666667</v>
+      </c>
+      <c r="N25">
+        <v>36.72395</v>
+      </c>
+      <c r="O25">
+        <v>0.2084884078209579</v>
+      </c>
+      <c r="P25">
+        <v>0.2084884078209579</v>
+      </c>
+      <c r="Q25">
+        <v>4.176476098577778</v>
+      </c>
+      <c r="R25">
+        <v>37.5882848872</v>
+      </c>
+      <c r="S25">
+        <v>0.006966321514676581</v>
+      </c>
+      <c r="T25">
+        <v>0.006966321514676582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.023536</v>
+      </c>
+      <c r="I26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.799674</v>
+      </c>
+      <c r="N26">
+        <v>62.399022</v>
+      </c>
+      <c r="O26">
+        <v>0.3542503664873991</v>
+      </c>
+      <c r="P26">
+        <v>0.3542503664873992</v>
+      </c>
+      <c r="Q26">
+        <v>7.096405042421334</v>
+      </c>
+      <c r="R26">
+        <v>63.867645381792</v>
+      </c>
+      <c r="S26">
+        <v>0.0118367345956352</v>
+      </c>
+      <c r="T26">
+        <v>0.0118367345956352</v>
       </c>
     </row>
   </sheetData>
